--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
@@ -994,6 +994,9 @@
       <c r="J15">
         <v>-0.05853558822055238</v>
       </c>
+      <c r="K15">
+        <v>-0.3352267436446591</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1023,8 +1026,11 @@
       <c r="I16">
         <v>0.2952509178591439</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.01855976243503714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1049,8 +1055,11 @@
       <c r="H17">
         <v>0.1470735274266985</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>-0.1296176279974082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1072,8 +1081,11 @@
       <c r="G18">
         <v>-0.01037246157745647</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>-0.2870636170015632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1092,8 +1104,11 @@
       <c r="F19">
         <v>0.4902869949486143</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.2135958395245076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1109,8 +1124,11 @@
       <c r="E20">
         <v>0.2099291144131452</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>-0.06676204101096155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,8 +1141,11 @@
       <c r="D21">
         <v>0.3819039722581568</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>0.1052128168340501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1134,18 +1155,27 @@
       <c r="C22">
         <v>0.07604143251182532</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>-0.2006497229122814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>0.6883713851991116</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23">
+        <v>0.4116802297750048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.249802839611392</v>
+        <v>9.718953170468685</v>
       </c>
       <c r="C2">
-        <v>9.718953170468685</v>
+        <v>-8.452308629668783</v>
       </c>
       <c r="D2">
-        <v>-8.452308629668783</v>
+        <v>-0.3126370826896341</v>
       </c>
       <c r="E2">
-        <v>-0.3126370826896341</v>
+        <v>1.834933389109758</v>
       </c>
       <c r="F2">
-        <v>1.834933389109758</v>
+        <v>-1.605096597413572</v>
       </c>
       <c r="G2">
-        <v>-1.605096597413572</v>
+        <v>-1.666270775827773</v>
       </c>
       <c r="H2">
-        <v>-1.666270775827773</v>
+        <v>0.3751851613284818</v>
       </c>
       <c r="I2">
-        <v>0.3751851613284818</v>
+        <v>-0.2074093757051592</v>
       </c>
       <c r="J2">
-        <v>-0.2074093757051592</v>
+        <v>-0.1117343348958014</v>
       </c>
       <c r="K2">
-        <v>-0.1117343348958014</v>
+        <v>-0.3721533718945242</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.469150330857293</v>
+        <v>-10.70211146928018</v>
       </c>
       <c r="C3">
-        <v>-10.70211146928018</v>
+        <v>-2.562439922301026</v>
       </c>
       <c r="D3">
-        <v>-2.562439922301026</v>
+        <v>-0.4148694505016339</v>
       </c>
       <c r="E3">
-        <v>-0.4148694505016339</v>
+        <v>-3.854899437024964</v>
       </c>
       <c r="F3">
-        <v>-3.854899437024964</v>
+        <v>-3.916073615439165</v>
       </c>
       <c r="G3">
-        <v>-3.916073615439165</v>
+        <v>-1.87461767828291</v>
       </c>
       <c r="H3">
-        <v>-1.87461767828291</v>
+        <v>-2.457212215316551</v>
       </c>
       <c r="I3">
-        <v>-2.457212215316551</v>
+        <v>-2.361537174507194</v>
       </c>
       <c r="J3">
-        <v>-2.361537174507194</v>
+        <v>-2.621956211505916</v>
       </c>
       <c r="K3">
-        <v>-2.621956211505916</v>
+        <v>-1.786501215347425</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-18.17126180013747</v>
+        <v>-10.03159025315832</v>
       </c>
       <c r="C4">
-        <v>-10.03159025315832</v>
+        <v>-7.884019781358927</v>
       </c>
       <c r="D4">
-        <v>-7.884019781358927</v>
+        <v>-11.32404976788226</v>
       </c>
       <c r="E4">
-        <v>-11.32404976788226</v>
+        <v>-11.38522394629646</v>
       </c>
       <c r="F4">
-        <v>-11.38522394629646</v>
+        <v>-9.343768009140204</v>
       </c>
       <c r="G4">
-        <v>-9.343768009140204</v>
+        <v>-9.926362546173845</v>
       </c>
       <c r="H4">
-        <v>-9.926362546173845</v>
+        <v>-9.830687505364487</v>
       </c>
       <c r="I4">
-        <v>-9.830687505364487</v>
+        <v>-10.09110654236321</v>
       </c>
       <c r="J4">
-        <v>-10.09110654236321</v>
+        <v>-9.255651546204719</v>
       </c>
       <c r="K4">
-        <v>-9.255651546204719</v>
+        <v>-9.35573090610734</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8.13967154697915</v>
+        <v>10.28724201877854</v>
       </c>
       <c r="C5">
-        <v>10.28724201877854</v>
+        <v>6.847212032255212</v>
       </c>
       <c r="D5">
-        <v>6.847212032255212</v>
+        <v>6.786037853841011</v>
       </c>
       <c r="E5">
-        <v>6.786037853841011</v>
+        <v>8.827493790997265</v>
       </c>
       <c r="F5">
-        <v>8.827493790997265</v>
+        <v>8.244899253963624</v>
       </c>
       <c r="G5">
-        <v>8.244899253963624</v>
+        <v>8.340574294772981</v>
       </c>
       <c r="H5">
-        <v>8.340574294772981</v>
+        <v>8.080155257774258</v>
       </c>
       <c r="I5">
-        <v>8.080155257774258</v>
+        <v>8.91561025393275</v>
       </c>
       <c r="J5">
-        <v>8.91561025393275</v>
+        <v>8.815530894030129</v>
       </c>
       <c r="K5">
-        <v>8.815530894030129</v>
+        <v>8.461744387950432</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.147570471799392</v>
+        <v>-1.292459514723937</v>
       </c>
       <c r="C6">
-        <v>-1.292459514723937</v>
+        <v>-1.353633693138139</v>
       </c>
       <c r="D6">
-        <v>-1.353633693138139</v>
+        <v>0.6878222440181159</v>
       </c>
       <c r="E6">
-        <v>0.6878222440181159</v>
+        <v>0.1052277069844749</v>
       </c>
       <c r="F6">
-        <v>0.1052277069844749</v>
+        <v>0.2009027477938327</v>
       </c>
       <c r="G6">
-        <v>0.2009027477938327</v>
+        <v>-0.0595162892048901</v>
       </c>
       <c r="H6">
-        <v>-0.0595162892048901</v>
+        <v>0.7759387069536011</v>
       </c>
       <c r="I6">
-        <v>0.7759387069536011</v>
+        <v>0.6758593470509796</v>
       </c>
       <c r="J6">
-        <v>0.6758593470509796</v>
+        <v>0.3220728409712834</v>
       </c>
       <c r="K6">
-        <v>0.3220728409712834</v>
+        <v>0.4702502314037287</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-3.44002998652333</v>
+        <v>-3.501204164937531</v>
       </c>
       <c r="C7">
-        <v>-3.501204164937531</v>
+        <v>-1.459748227781277</v>
       </c>
       <c r="D7">
-        <v>-1.459748227781277</v>
+        <v>-2.042342764814918</v>
       </c>
       <c r="E7">
-        <v>-2.042342764814918</v>
+        <v>-1.94666772400556</v>
       </c>
       <c r="F7">
-        <v>-1.94666772400556</v>
+        <v>-2.207086761004283</v>
       </c>
       <c r="G7">
-        <v>-2.207086761004283</v>
+        <v>-1.371631764845791</v>
       </c>
       <c r="H7">
-        <v>-1.371631764845791</v>
+        <v>-1.471711124748413</v>
       </c>
       <c r="I7">
-        <v>-1.471711124748413</v>
+        <v>-1.825497630828109</v>
       </c>
       <c r="J7">
-        <v>-1.825497630828109</v>
+        <v>-1.677320240395664</v>
       </c>
       <c r="K7">
-        <v>-1.677320240395664</v>
+        <v>-1.519874251391509</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.06117417841420103</v>
+        <v>1.980281758742053</v>
       </c>
       <c r="C8">
-        <v>1.980281758742053</v>
+        <v>1.397687221708412</v>
       </c>
       <c r="D8">
-        <v>1.397687221708412</v>
+        <v>1.49336226251777</v>
       </c>
       <c r="E8">
-        <v>1.49336226251777</v>
+        <v>1.232943225519047</v>
       </c>
       <c r="F8">
-        <v>1.232943225519047</v>
+        <v>2.068398221677539</v>
       </c>
       <c r="G8">
-        <v>2.068398221677539</v>
+        <v>1.968318861774917</v>
       </c>
       <c r="H8">
-        <v>1.968318861774917</v>
+        <v>1.614532355695221</v>
       </c>
       <c r="I8">
-        <v>1.614532355695221</v>
+        <v>1.762709746127666</v>
       </c>
       <c r="J8">
-        <v>1.762709746127666</v>
+        <v>1.920155735131821</v>
       </c>
       <c r="K8">
-        <v>1.920155735131821</v>
+        <v>1.41949627860575</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2.041455937156254</v>
+        <v>1.458861400122613</v>
       </c>
       <c r="C9">
-        <v>1.458861400122613</v>
+        <v>1.554536440931971</v>
       </c>
       <c r="D9">
-        <v>1.554536440931971</v>
+        <v>1.294117403933248</v>
       </c>
       <c r="E9">
-        <v>1.294117403933248</v>
+        <v>2.12957240009174</v>
       </c>
       <c r="F9">
-        <v>2.12957240009174</v>
+        <v>2.029493040189118</v>
       </c>
       <c r="G9">
-        <v>2.029493040189118</v>
+        <v>1.675706534109422</v>
       </c>
       <c r="H9">
-        <v>1.675706534109422</v>
+        <v>1.823883924541867</v>
       </c>
       <c r="I9">
-        <v>1.823883924541867</v>
+        <v>1.981329913546022</v>
       </c>
       <c r="J9">
-        <v>1.981329913546022</v>
+        <v>1.480670457019951</v>
       </c>
       <c r="K9">
-        <v>1.480670457019951</v>
+        <v>1.761028337555421</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5825945370336409</v>
+        <v>-0.4869194962242832</v>
       </c>
       <c r="C10">
-        <v>-0.4869194962242832</v>
+        <v>-0.747338533223006</v>
       </c>
       <c r="D10">
-        <v>-0.747338533223006</v>
+        <v>0.0881164629354852</v>
       </c>
       <c r="E10">
-        <v>0.0881164629354852</v>
+        <v>-0.01196289696713632</v>
       </c>
       <c r="F10">
-        <v>-0.01196289696713632</v>
+        <v>-0.3657494030468326</v>
       </c>
       <c r="G10">
-        <v>-0.3657494030468326</v>
+        <v>-0.2175720126143872</v>
       </c>
       <c r="H10">
-        <v>-0.2175720126143872</v>
+        <v>-0.06012602361023223</v>
       </c>
       <c r="I10">
-        <v>-0.06012602361023223</v>
+        <v>-0.560785480136303</v>
       </c>
       <c r="J10">
-        <v>-0.560785480136303</v>
+        <v>-0.2804275996008339</v>
       </c>
       <c r="K10">
-        <v>-0.2804275996008339</v>
+        <v>-0.4524024574458455</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.09567504080935779</v>
+        <v>-0.164743996189365</v>
       </c>
       <c r="C11">
-        <v>-0.164743996189365</v>
+        <v>0.6707109999691262</v>
       </c>
       <c r="D11">
-        <v>0.6707109999691262</v>
+        <v>0.5706316400665047</v>
       </c>
       <c r="E11">
-        <v>0.5706316400665047</v>
+        <v>0.2168451339868084</v>
       </c>
       <c r="F11">
-        <v>0.2168451339868084</v>
+        <v>0.3650225244192538</v>
       </c>
       <c r="G11">
-        <v>0.3650225244192538</v>
+        <v>0.5224685134234088</v>
       </c>
       <c r="H11">
-        <v>0.5224685134234088</v>
+        <v>0.02180905689733798</v>
       </c>
       <c r="I11">
-        <v>0.02180905689733798</v>
+        <v>0.3021669374328071</v>
       </c>
       <c r="J11">
-        <v>0.3021669374328071</v>
+        <v>0.1301920795877955</v>
       </c>
       <c r="K11">
-        <v>0.1301920795877955</v>
+        <v>0.436054619334127</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2604190369987228</v>
+        <v>0.5750359591597685</v>
       </c>
       <c r="C12">
-        <v>0.5750359591597685</v>
+        <v>0.4749565992571469</v>
       </c>
       <c r="D12">
-        <v>0.4749565992571469</v>
+        <v>0.1211700931774507</v>
       </c>
       <c r="E12">
-        <v>0.1211700931774507</v>
+        <v>0.269347483609896</v>
       </c>
       <c r="F12">
-        <v>0.269347483609896</v>
+        <v>0.426793472614051</v>
       </c>
       <c r="G12">
-        <v>0.426793472614051</v>
+        <v>-0.07386598391201982</v>
       </c>
       <c r="H12">
-        <v>-0.07386598391201982</v>
+        <v>0.2064918966234494</v>
       </c>
       <c r="I12">
-        <v>0.2064918966234494</v>
+        <v>0.0345170387784377</v>
       </c>
       <c r="J12">
-        <v>0.0345170387784377</v>
+        <v>0.3403795785247692</v>
       </c>
       <c r="K12">
-        <v>0.3403795785247692</v>
+        <v>-0.271950374162517</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.8354549961584912</v>
+        <v>0.7353756362558697</v>
       </c>
       <c r="C13">
-        <v>0.7353756362558697</v>
+        <v>0.3815891301761735</v>
       </c>
       <c r="D13">
-        <v>0.3815891301761735</v>
+        <v>0.5297665206086188</v>
       </c>
       <c r="E13">
-        <v>0.5297665206086188</v>
+        <v>0.6872125096127738</v>
       </c>
       <c r="F13">
-        <v>0.6872125096127738</v>
+        <v>0.186553053086703</v>
       </c>
       <c r="G13">
-        <v>0.186553053086703</v>
+        <v>0.4669109336221722</v>
       </c>
       <c r="H13">
-        <v>0.4669109336221722</v>
+        <v>0.2949360757771605</v>
       </c>
       <c r="I13">
-        <v>0.2949360757771605</v>
+        <v>0.600798615523492</v>
       </c>
       <c r="J13">
-        <v>0.600798615523492</v>
+        <v>-0.01153133716379418</v>
       </c>
       <c r="K13">
-        <v>-0.01153133716379418</v>
+        <v>0.6768400480353174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1000793599026215</v>
+        <v>-0.4538658659823178</v>
       </c>
       <c r="C14">
-        <v>-0.4538658659823178</v>
+        <v>-0.3056884755498724</v>
       </c>
       <c r="D14">
-        <v>-0.3056884755498724</v>
+        <v>-0.1482424865457174</v>
       </c>
       <c r="E14">
-        <v>-0.1482424865457174</v>
+        <v>-0.6489019430717882</v>
       </c>
       <c r="F14">
-        <v>-0.6489019430717882</v>
+        <v>-0.3685440625363191</v>
       </c>
       <c r="G14">
-        <v>-0.3685440625363191</v>
+        <v>-0.5405189203813308</v>
       </c>
       <c r="H14">
-        <v>-0.5405189203813308</v>
+        <v>-0.2346563806349992</v>
       </c>
       <c r="I14">
-        <v>-0.2346563806349992</v>
+        <v>-0.8469863333222853</v>
       </c>
       <c r="J14">
-        <v>-0.8469863333222853</v>
+        <v>-0.1586149481231739</v>
       </c>
       <c r="K14">
-        <v>-0.1586149481231739</v>
+        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.3537865060796963</v>
+        <v>-0.2056091156472509</v>
       </c>
       <c r="C15">
-        <v>-0.2056091156472509</v>
+        <v>-0.04816312664309591</v>
       </c>
       <c r="D15">
-        <v>-0.04816312664309591</v>
+        <v>-0.5488225831691667</v>
       </c>
       <c r="E15">
-        <v>-0.5488225831691667</v>
+        <v>-0.2684647026336975</v>
       </c>
       <c r="F15">
-        <v>-0.2684647026336975</v>
+        <v>-0.4404395604787092</v>
       </c>
       <c r="G15">
-        <v>-0.4404395604787092</v>
+        <v>-0.1345770207323777</v>
       </c>
       <c r="H15">
-        <v>-0.1345770207323777</v>
+        <v>-0.7469069734196638</v>
       </c>
       <c r="I15">
-        <v>-0.7469069734196638</v>
+        <v>-0.05853558822055238</v>
       </c>
       <c r="J15">
-        <v>-0.05853558822055238</v>
-      </c>
-      <c r="K15">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1481773904324453</v>
+        <v>0.3056233794366003</v>
       </c>
       <c r="C16">
-        <v>0.3056233794366003</v>
+        <v>-0.1950360770894705</v>
       </c>
       <c r="D16">
-        <v>-0.1950360770894705</v>
+        <v>0.08532180344599868</v>
       </c>
       <c r="E16">
-        <v>0.08532180344599868</v>
+        <v>-0.08665305439901295</v>
       </c>
       <c r="F16">
-        <v>-0.08665305439901295</v>
+        <v>0.2192094853473185</v>
       </c>
       <c r="G16">
-        <v>0.2192094853473185</v>
+        <v>-0.3931204673399676</v>
       </c>
       <c r="H16">
-        <v>-0.3931204673399676</v>
+        <v>0.2952509178591439</v>
       </c>
       <c r="I16">
-        <v>0.2952509178591439</v>
-      </c>
-      <c r="J16">
         <v>0.01855976243503714</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.157445989004155</v>
+        <v>-0.3432134675219158</v>
       </c>
       <c r="C17">
-        <v>-0.3432134675219158</v>
+        <v>-0.06285558698644665</v>
       </c>
       <c r="D17">
-        <v>-0.06285558698644665</v>
+        <v>-0.2348304448314583</v>
       </c>
       <c r="E17">
-        <v>-0.2348304448314583</v>
+        <v>0.0710320949148732</v>
       </c>
       <c r="F17">
-        <v>0.0710320949148732</v>
+        <v>-0.541297857772413</v>
       </c>
       <c r="G17">
-        <v>-0.541297857772413</v>
+        <v>0.1470735274266985</v>
       </c>
       <c r="H17">
-        <v>0.1470735274266985</v>
-      </c>
-      <c r="I17">
         <v>-0.1296176279974082</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.5006594565260708</v>
+        <v>-0.2203015759906016</v>
       </c>
       <c r="C18">
-        <v>-0.2203015759906016</v>
+        <v>-0.3922764338356133</v>
       </c>
       <c r="D18">
-        <v>-0.3922764338356133</v>
+        <v>-0.0864138940892818</v>
       </c>
       <c r="E18">
-        <v>-0.0864138940892818</v>
+        <v>-0.698743846776568</v>
       </c>
       <c r="F18">
-        <v>-0.698743846776568</v>
+        <v>-0.01037246157745647</v>
       </c>
       <c r="G18">
-        <v>-0.01037246157745647</v>
-      </c>
-      <c r="H18">
         <v>-0.2870636170015632</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2803578805354692</v>
+        <v>0.1083830226904575</v>
       </c>
       <c r="C19">
-        <v>0.1083830226904575</v>
+        <v>0.414245562436789</v>
       </c>
       <c r="D19">
-        <v>0.414245562436789</v>
+        <v>-0.1980843902504972</v>
       </c>
       <c r="E19">
-        <v>-0.1980843902504972</v>
+        <v>0.4902869949486143</v>
       </c>
       <c r="F19">
-        <v>0.4902869949486143</v>
-      </c>
-      <c r="G19">
         <v>0.2135958395245076</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.1719748578450117</v>
+        <v>0.1338876819013198</v>
       </c>
       <c r="C20">
-        <v>0.1338876819013198</v>
+        <v>-0.4784422707859664</v>
       </c>
       <c r="D20">
-        <v>-0.4784422707859664</v>
+        <v>0.2099291144131452</v>
       </c>
       <c r="E20">
-        <v>0.2099291144131452</v>
-      </c>
-      <c r="F20">
         <v>-0.06676204101096155</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.3058625397463315</v>
+        <v>-0.3064674129409547</v>
       </c>
       <c r="C21">
-        <v>-0.3064674129409547</v>
+        <v>0.3819039722581568</v>
       </c>
       <c r="D21">
-        <v>0.3819039722581568</v>
-      </c>
-      <c r="E21">
         <v>0.1052128168340501</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.6123299526872862</v>
+        <v>0.07604143251182532</v>
       </c>
       <c r="C22">
-        <v>0.07604143251182532</v>
-      </c>
-      <c r="D22">
         <v>-0.2006497229122814</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.6883713851991116</v>
-      </c>
-      <c r="C23">
         <v>0.4116802297750048</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>2.249802839611392</v>
+      </c>
+      <c r="C2">
         <v>9.718953170468685</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-8.452308629668783</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.3126370826896341</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.834933389109758</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-1.605096597413572</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.666270775827773</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.3751851613284818</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.2074093757051592</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.1117343348958014</v>
-      </c>
-      <c r="K2">
-        <v>-0.3721533718945242</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>7.469150330857293</v>
+      </c>
+      <c r="C3">
         <v>-10.70211146928018</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-2.562439922301026</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.4148694505016339</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-3.854899437024964</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-3.916073615439165</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.87461767828291</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-2.457212215316551</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-2.361537174507194</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-2.621956211505916</v>
-      </c>
-      <c r="K3">
-        <v>-1.786501215347425</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-18.17126180013747</v>
+      </c>
+      <c r="C4">
         <v>-10.03159025315832</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-7.884019781358927</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-11.32404976788226</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-11.38522394629646</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-9.343768009140204</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-9.926362546173845</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-9.830687505364487</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-10.09110654236321</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-9.255651546204719</v>
-      </c>
-      <c r="K4">
-        <v>-9.35573090610734</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>8.13967154697915</v>
+      </c>
+      <c r="C5">
         <v>10.28724201877854</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6.847212032255212</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6.786037853841011</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8.827493790997265</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.244899253963624</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.340574294772981</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.080155257774258</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.91561025393275</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>8.815530894030129</v>
-      </c>
-      <c r="K5">
-        <v>8.461744387950432</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>2.147570471799392</v>
+      </c>
+      <c r="C6">
         <v>-1.292459514723937</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.353633693138139</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.6878222440181159</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1052277069844749</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2009027477938327</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.0595162892048901</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.7759387069536011</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.6758593470509796</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.3220728409712834</v>
-      </c>
-      <c r="K6">
-        <v>0.4702502314037287</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-3.44002998652333</v>
+      </c>
+      <c r="C7">
         <v>-3.501204164937531</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1.459748227781277</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-2.042342764814918</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.94666772400556</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-2.207086761004283</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1.371631764845791</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.471711124748413</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.825497630828109</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.677320240395664</v>
-      </c>
-      <c r="K7">
-        <v>-1.519874251391509</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.06117417841420103</v>
+      </c>
+      <c r="C8">
         <v>1.980281758742053</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.397687221708412</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.49336226251777</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.232943225519047</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.068398221677539</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.968318861774917</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.614532355695221</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.762709746127666</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.920155735131821</v>
-      </c>
-      <c r="K8">
-        <v>1.41949627860575</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>2.041455937156254</v>
+      </c>
+      <c r="C9">
         <v>1.458861400122613</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.554536440931971</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.294117403933248</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.12957240009174</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.029493040189118</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.675706534109422</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.823883924541867</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.981329913546022</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.480670457019951</v>
-      </c>
-      <c r="K9">
-        <v>1.761028337555421</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5825945370336409</v>
+      </c>
+      <c r="C10">
         <v>-0.4869194962242832</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.747338533223006</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.0881164629354852</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.01196289696713632</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.3657494030468326</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2175720126143872</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.06012602361023223</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.560785480136303</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.2804275996008339</v>
-      </c>
-      <c r="K10">
-        <v>-0.4524024574458455</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.09567504080935779</v>
+      </c>
+      <c r="C11">
         <v>-0.164743996189365</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.6707109999691262</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.5706316400665047</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.2168451339868084</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.3650225244192538</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.5224685134234088</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.02180905689733798</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.3021669374328071</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.1301920795877955</v>
-      </c>
-      <c r="K11">
-        <v>0.436054619334127</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.2604190369987228</v>
+      </c>
+      <c r="C12">
         <v>0.5750359591597685</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.4749565992571469</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1211700931774507</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.269347483609896</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.426793472614051</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.07386598391201982</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.2064918966234494</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.0345170387784377</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.3403795785247692</v>
-      </c>
-      <c r="K12">
-        <v>-0.271950374162517</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.8354549961584912</v>
+      </c>
+      <c r="C13">
         <v>0.7353756362558697</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3815891301761735</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.5297665206086188</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.6872125096127738</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.186553053086703</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.4669109336221722</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.2949360757771605</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.600798615523492</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.01153133716379418</v>
-      </c>
-      <c r="K13">
-        <v>0.6768400480353174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.1000793599026215</v>
+      </c>
+      <c r="C14">
         <v>-0.4538658659823178</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.3056884755498724</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.1482424865457174</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.6489019430717882</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.3685440625363191</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.5405189203813308</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.2346563806349992</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.8469863333222853</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.1586149481231739</v>
-      </c>
-      <c r="K14">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +968,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.3537865060796963</v>
+      </c>
+      <c r="C15">
         <v>-0.2056091156472509</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.04816312664309591</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.5488225831691667</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.2684647026336975</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.4404395604787092</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.1345770207323777</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.7469069734196638</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.05853558822055238</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.1481773904324453</v>
+      </c>
+      <c r="C16">
         <v>0.3056233794366003</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.1950360770894705</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.08532180344599868</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.08665305439901295</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.2192094853473185</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.3931204673399676</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.2952509178591439</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01855976243503714</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.157445989004155</v>
+      </c>
+      <c r="C17">
         <v>-0.3432134675219158</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.06285558698644665</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.2348304448314583</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.0710320949148732</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.541297857772413</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.1470735274266985</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.1296176279974082</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.5006594565260708</v>
+      </c>
+      <c r="C18">
         <v>-0.2203015759906016</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.3922764338356133</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.0864138940892818</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.698743846776568</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.01037246157745647</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.2870636170015632</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.2803578805354692</v>
+      </c>
+      <c r="C19">
         <v>0.1083830226904575</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.414245562436789</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.1980843902504972</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.4902869949486143</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.2135958395245076</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.1719748578450117</v>
+      </c>
+      <c r="C20">
         <v>0.1338876819013198</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.4784422707859664</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2099291144131452</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.06676204101096155</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.3058625397463315</v>
+      </c>
+      <c r="C21">
         <v>-0.3064674129409547</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3819039722581568</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1052128168340501</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C22">
         <v>0.07604143251182532</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.2006497229122814</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.6883713851991116</v>
+      </c>
+      <c r="C23">
         <v>0.4116802297750048</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
